--- a/monitoring_agent/monitor/765_щщ.xlsx
+++ b/monitoring_agent/monitor/765_щщ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file_monitoring_system\monitoring_agent\monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D82CCA-7916-42CF-84EE-10FFFC4116AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176BBB03-F785-4A63-9ADD-FAAA5E9E0D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="712">
   <si>
     <t>import os</t>
   </si>
@@ -2197,12 +2197,15 @@
       <t xml:space="preserve"> time.time()</t>
     </r>
   </si>
+  <si>
+    <t>developer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2240,6 +2243,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA2FCA2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2261,12 +2270,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2549,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:V813"/>
+  <dimension ref="C4:V813"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2673,7 +2685,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>11</v>
       </c>
@@ -2695,7 +2707,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>12</v>
       </c>
@@ -2703,7 +2715,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>13</v>
       </c>
@@ -2714,7 +2726,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>16</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>18</v>
       </c>
@@ -2769,7 +2781,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>19</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>20</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>21</v>
       </c>
@@ -2799,7 +2811,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>22</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
         <v>710</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
         <v>710</v>
       </c>
@@ -2904,7 +2916,10 @@
         <v>705</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>710</v>
       </c>
